--- a/nfeature: 512, hamming_tolerance: 32, k_knn: 7.xlsx
+++ b/nfeature: 512, hamming_tolerance: 32, k_knn: 7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,10 +428,10 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1.252</v>
+        <v>3.637</v>
       </c>
       <c r="C1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D1" t="n">
         <v>0.038</v>
@@ -457,25 +457,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.356</v>
+        <v>3.977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D2" t="n">
-        <v>0.035</v>
+        <v>0.052</v>
       </c>
       <c r="E2" t="n">
-        <v>0.571</v>
+        <v>0.429</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rafiqo Rapitasari</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
@@ -486,74 +486,74 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.321</v>
+        <v>1.214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>0.052</v>
+        <v>0.21</v>
       </c>
       <c r="E3" t="n">
-        <v>0.429</v>
+        <v>0.571</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Fanny Yusuf</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AK_1.png</t>
+          <t>TD_4.png</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.359</v>
+        <v>1.253</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D4" t="n">
-        <v>0.496</v>
+        <v>0.156</v>
       </c>
       <c r="E4" t="n">
-        <v>0.857</v>
+        <v>0.571</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Akhlak Kamiswara</t>
+          <t>Fanny Yusuf</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AK_2.png</t>
+          <t>AK_1.png</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.644</v>
+        <v>0.601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.487</v>
+        <v>0.496</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.857</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -569,17 +569,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AK_3.png</t>
+          <t>AK_2.png</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.578</v>
+        <v>0.961</v>
       </c>
       <c r="C6" t="n">
         <v>0.002</v>
       </c>
       <c r="D6" t="n">
-        <v>0.649</v>
+        <v>0.487</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -598,17 +598,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AK_4.png</t>
+          <t>AK_3.png</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.286</v>
+        <v>0.864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D7" t="n">
-        <v>0.47</v>
+        <v>0.649</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -627,17 +627,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AK_5.png</t>
+          <t>AK_4.png</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.278</v>
+        <v>0.481</v>
       </c>
       <c r="C8" t="n">
         <v>0.001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.551</v>
+        <v>0.47</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -656,24 +656,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MIB_1.png</t>
+          <t>AK_5.png</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.927</v>
+        <v>0.476</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14</v>
+        <v>0.551</v>
       </c>
       <c r="E9" t="n">
-        <v>0.571</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Muhammad Iqbal Baqi</t>
+          <t>Akhlak Kamiswara</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -685,20 +685,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MIB_2.png</t>
+          <t>MIB_1.png</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.783</v>
+        <v>1.762</v>
       </c>
       <c r="C10" t="n">
         <v>0.003</v>
       </c>
       <c r="D10" t="n">
-        <v>0.355</v>
+        <v>0.14</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.571</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -714,17 +714,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MIB_3.png</t>
+          <t>MIB_2.png</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.985</v>
+        <v>1.251</v>
       </c>
       <c r="C11" t="n">
         <v>0.003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.751</v>
+        <v>0.355</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -743,17 +743,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MIB_4.png</t>
+          <t>MIB_3.png</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.779</v>
+        <v>1.504</v>
       </c>
       <c r="C12" t="n">
         <v>0.003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248</v>
+        <v>0.751</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -772,17 +772,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MIB_5.png</t>
+          <t>MIB_4.png</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.911</v>
+        <v>1.262</v>
       </c>
       <c r="C13" t="n">
         <v>0.003</v>
       </c>
       <c r="D13" t="n">
-        <v>0.327</v>
+        <v>0.248</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -801,24 +801,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AAH_1.png</t>
+          <t>MIB_5.png</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.598</v>
+        <v>1.576</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D14" t="n">
-        <v>0.287</v>
+        <v>0.327</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Andrea Ayunove Hutami</t>
+          <t>Muhammad Iqbal Baqi</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -830,17 +830,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AAH_2.png</t>
+          <t>AAH_1.png</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.779</v>
+        <v>0.964</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D15" t="n">
-        <v>0.723</v>
+        <v>0.287</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -859,17 +859,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AAH_3.png</t>
+          <t>AAH_2.png</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5580000000000001</v>
+        <v>1.141</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D16" t="n">
-        <v>0.318</v>
+        <v>0.723</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -888,24 +888,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TI_1.png</t>
+          <t>AAH_3.png</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.647</v>
+        <v>1.105</v>
       </c>
       <c r="C17" t="n">
         <v>0.002</v>
       </c>
       <c r="D17" t="n">
-        <v>0.502</v>
+        <v>0.318</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Toni Ismail</t>
+          <t>Andrea Ayunove Hutami</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -917,17 +917,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TI_2.png</t>
+          <t>TI_1.png</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.675</v>
+        <v>0.986</v>
       </c>
       <c r="C18" t="n">
         <v>0.002</v>
       </c>
       <c r="D18" t="n">
-        <v>0.504</v>
+        <v>0.502</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -946,17 +946,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TI_3.png</t>
+          <t>TI_2.png</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.469</v>
+        <v>0.965</v>
       </c>
       <c r="C19" t="n">
         <v>0.002</v>
       </c>
       <c r="D19" t="n">
-        <v>0.795</v>
+        <v>0.504</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -975,17 +975,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TI_4.png</t>
+          <t>TI_3.png</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.446</v>
+        <v>0.752</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D20" t="n">
-        <v>0.511</v>
+        <v>0.795</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1004,17 +1004,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TI_5.png</t>
+          <t>TI_4.png</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.744</v>
+        <v>0.735</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.542</v>
+        <v>0.511</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1033,24 +1033,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RAS_1.png</t>
+          <t>TI_5.png</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.414</v>
+        <v>1.114</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D22" t="n">
-        <v>0.498</v>
+        <v>0.542</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ridha Ayu Salsabila</t>
+          <t>Toni Ismail</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1062,17 +1062,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RAS_2.png</t>
+          <t>RAS_1.png</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.664</v>
+        <v>0.733</v>
       </c>
       <c r="C23" t="n">
         <v>0.002</v>
       </c>
       <c r="D23" t="n">
-        <v>0.398</v>
+        <v>0.498</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1091,20 +1091,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RAS_3.png</t>
+          <t>RAS_2.png</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.305</v>
+        <v>1.029</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D24" t="n">
-        <v>0.383</v>
+        <v>0.398</v>
       </c>
       <c r="E24" t="n">
-        <v>0.857</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1120,20 +1120,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RAS_4.png</t>
+          <t>RAS_3.png</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.769</v>
+        <v>0.57</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.188</v>
+        <v>0.383</v>
       </c>
       <c r="E25" t="n">
-        <v>0.714</v>
+        <v>0.857</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1149,20 +1149,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RAS_5.png</t>
+          <t>RAS_4.png</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.749</v>
+        <v>1.138</v>
       </c>
       <c r="C26" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.531</v>
+        <v>0.188</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0.714</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1178,24 +1178,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RR_1.png</t>
+          <t>RAS_5.png</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.912</v>
+        <v>1.115</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D27" t="n">
-        <v>0.628</v>
+        <v>0.531</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rafiqo Rapitasari</t>
+          <t>Ridha Ayu Salsabila</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1207,17 +1207,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RR_2.png</t>
+          <t>RR_1.png</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.215</v>
+        <v>1.325</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D28" t="n">
-        <v>0.667</v>
+        <v>0.628</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -1236,17 +1236,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RR_3.png</t>
+          <t>RR_2.png</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.627</v>
+        <v>1.68</v>
       </c>
       <c r="C29" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="D29" t="n">
-        <v>0.11</v>
+        <v>0.667</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1265,17 +1265,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RR_4.png</t>
+          <t>RR_3.png</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.857</v>
+        <v>1.011</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D30" t="n">
-        <v>0.624</v>
+        <v>0.11</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1294,17 +1294,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RR_5.png</t>
+          <t>RR_4.png</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.882</v>
+        <v>1.262</v>
       </c>
       <c r="C31" t="n">
         <v>0.003</v>
       </c>
       <c r="D31" t="n">
-        <v>0.702</v>
+        <v>0.624</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1323,24 +1323,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AR_1.png</t>
+          <t>RR_5.png</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.5610000000000001</v>
+        <v>1.322</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D32" t="n">
-        <v>0.623</v>
+        <v>0.702</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Arizli Romadhon</t>
+          <t>Rafiqo Rapitasari</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1352,24 +1352,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GA_1.png</t>
+          <t>AR_1.png</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.877</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D33" t="n">
-        <v>0.618</v>
+        <v>0.623</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gege Ardiyansyah</t>
+          <t>Arizli Romadhon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1381,20 +1381,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GA_2.png</t>
+          <t>GA_1.png</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.461</v>
+        <v>1.271</v>
       </c>
       <c r="C34" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="D34" t="n">
-        <v>0.317</v>
+        <v>0.618</v>
       </c>
       <c r="E34" t="n">
-        <v>0.857</v>
+        <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1410,20 +1410,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GA_3.png</t>
+          <t>GA_2.png</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.439</v>
+        <v>0.778</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D35" t="n">
-        <v>0.199</v>
+        <v>0.317</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0.857</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1439,78 +1439,78 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FY_1.png</t>
+          <t>GA_3.png</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.624</v>
+        <v>0.733</v>
       </c>
       <c r="C36" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="D36" t="n">
         <v>0.199</v>
       </c>
       <c r="E36" t="n">
-        <v>0.429</v>
+        <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tidak Diketahui</t>
+          <t>Gege Ardiyansyah</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FY_2.png</t>
+          <t>FY_1.png</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5580000000000001</v>
+        <v>1.087</v>
       </c>
       <c r="C37" t="n">
         <v>0.002</v>
       </c>
       <c r="D37" t="n">
-        <v>0.209</v>
+        <v>0.199</v>
       </c>
       <c r="E37" t="n">
-        <v>0.857</v>
+        <v>0.429</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tidak Diketahui</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Benar</t>
+          <t>Salah</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FY_3.png</t>
+          <t>FY_2.png</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.863</v>
+        <v>0.876</v>
       </c>
       <c r="C38" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D38" t="n">
-        <v>0.639</v>
+        <v>0.209</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0.857</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1526,24 +1526,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TO_1.png</t>
+          <t>FY_3.png</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.613</v>
+        <v>1.336</v>
       </c>
       <c r="C39" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D39" t="n">
-        <v>0.539</v>
+        <v>0.639</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tiara Oktavian</t>
+          <t>Fanny Yusuf</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1555,17 +1555,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TO_2.png</t>
+          <t>TO_1.png</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.633</v>
+        <v>1.185</v>
       </c>
       <c r="C40" t="n">
         <v>0.002</v>
       </c>
       <c r="D40" t="n">
-        <v>0.513</v>
+        <v>0.539</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1584,11 +1584,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TO_3.png</t>
+          <t>TO_2.png</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.5570000000000001</v>
+        <v>1.13</v>
       </c>
       <c r="C41" t="n">
         <v>0.002</v>
@@ -1613,56 +1613,85 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TO_4.png</t>
+          <t>TO_3.png</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.962</v>
+        <v>0.954</v>
       </c>
       <c r="C42" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11</v>
+        <v>0.513</v>
       </c>
       <c r="E42" t="n">
-        <v>0.571</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Fanny Yusuf</t>
+          <t>Tiara Oktavian</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Salah</t>
+          <t>Benar</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>TO_4.png</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Fanny Yusuf</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Salah</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>TO_5.png</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="B44" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D44" t="n">
         <v>0.496</v>
       </c>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>Tiara Oktavian</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Benar</t>
         </is>
